--- a/output/PrescriptionDispenseLists/practitioner-dh-base-1.xlsx
+++ b/output/PrescriptionDispenseLists/practitioner-dh-base-1.xlsx
@@ -580,7 +580,7 @@
     <t>http://ns.electronichealth.net.au/id/hi/hpii/1.0</t>
   </si>
   <si>
-    <t>http://www.acme.com/identifiers/patient or urn:ietf:rfc:3986 if the Identifier.value itself is a full uri</t>
+    <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
     <t>Identifier.system</t>
